--- a/output/frat/conceptnet-local_embedding_search/depth_1/frat_3_conceptnet_search.xlsx
+++ b/output/frat/conceptnet-local_embedding_search/depth_1/frat_3_conceptnet_search.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rejna/projects/github.com/r_m_thesis/output/frat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\r_m_thesis\output\frat\conceptnet-local_embedding_search\depth_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00FC9EF-9E83-8F4C-94B8-F641B2DD7E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDF70C5-0F13-4506-BA07-4F51E1F99078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28560" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -864,18 +864,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
-    <col min="4" max="4" width="34.1640625" customWidth="1"/>
+    <col min="1" max="1" width="40.1796875" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" customWidth="1"/>
+    <col min="4" max="4" width="34.1796875" customWidth="1"/>
     <col min="5" max="5" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -904,7 +905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -927,7 +928,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -941,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -964,7 +965,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -987,7 +988,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1010,7 +1011,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1024,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1041,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1069,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1083,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1106,7 +1107,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1143,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1166,7 +1167,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1183,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1206,7 +1207,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1220,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1243,7 +1244,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1257,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1280,7 +1281,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1294,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1308,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1336,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1350,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1364,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1387,7 +1388,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1404,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1418,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1432,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1469,7 +1470,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1486,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1509,7 +1510,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -1523,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -1568,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -1582,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -1596,7 +1597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1610,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -1624,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -1652,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -1666,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -1680,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -1694,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -1708,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I50" t="s">
         <v>146</v>
       </c>
